--- a/OBAOLE4423075.xlsx
+++ b/OBAOLE4423075.xlsx
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OBAOLE4423075.xlsx
+++ b/OBAOLE4423075.xlsx
@@ -62,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1634,8 +1633,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1650,8 +1649,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
